--- a/Rule/TCRule.xlsx
+++ b/Rule/TCRule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edward.by\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="4" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>

--- a/Rule/TCRule.xlsx
+++ b/Rule/TCRule.xlsx
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rule/TCRule.xlsx
+++ b/Rule/TCRule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Rule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edward.by\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="4" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" customWidth="1"/>
